--- a/medicine/Enfance/La_Semaine_de_Suzette/La_Semaine_de_Suzette.xlsx
+++ b/medicine/Enfance/La_Semaine_de_Suzette/La_Semaine_de_Suzette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Semaine de Suzette est un hebdomadaire destiné aux fillettes et jeunes filles issues de familles aisées, publié en France du 2 février 1905 au 25 août 1960 par les éditions Gautier-Languereau (Henri Gautier jusqu'en 1918)[1]. Il contenait des textes illustrés, des récits édifiants, des conseils pratiques et quelques bandes dessinées.
-Il est célèbre pour avoir introduit dès son premier numéro le personnage de Bécassine, créé par le dessinateur Joseph Porphyre Pinchon et la rédactrice-en-chef de la revue Jacqueline Rivière. D'autres auteurs de talent, tels Étienne Le Rallic, Edmond-François Calvo ou Marie d'Agon de la Contrie, ont collaboré à La Semaine de Suzette[1].
+La Semaine de Suzette est un hebdomadaire destiné aux fillettes et jeunes filles issues de familles aisées, publié en France du 2 février 1905 au 25 août 1960 par les éditions Gautier-Languereau (Henri Gautier jusqu'en 1918). Il contenait des textes illustrés, des récits édifiants, des conseils pratiques et quelques bandes dessinées.
+Il est célèbre pour avoir introduit dès son premier numéro le personnage de Bécassine, créé par le dessinateur Joseph Porphyre Pinchon et la rédactrice-en-chef de la revue Jacqueline Rivière. D'autres auteurs de talent, tels Étienne Le Rallic, Edmond-François Calvo ou Marie d'Agon de la Contrie, ont collaboré à La Semaine de Suzette.
 Les numéros invendus étaient rassemblés en albums reliés, semestriels jusqu'en 1950, ensuite quadrimestriels, puis trimestriels. Des livres reprenant chacun une histoire complète ayant paru dans la revue sont publiés sous le titre Bibliothèque de Suzette de 1919 à 1958.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Illustrateurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Semaine de Suzette est particulièrement célèbre pour ses illustrateurs dont :
 Jack Abeillé
@@ -537,7 +551,7 @@
 Maggie Salcedo
 Henri de Sta
 Henri Thiriet
-Et ses pages ont accueilli les premiers travaux de dessinateurs plus inattendus tels que Julio Ribera ou Georges Pichard[2].
+Et ses pages ont accueilli les premiers travaux de dessinateurs plus inattendus tels que Julio Ribera ou Georges Pichard.
 </t>
         </is>
       </c>
